--- a/output/0/tRNA-Glu-TTC-1-1.xlsx
+++ b/output/0/tRNA-Glu-TTC-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
   <si>
     <t>chr2</t>
   </si>
@@ -285,36 +285,6 @@
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>131094995</t>
-  </si>
-  <si>
-    <t>131095018</t>
-  </si>
-  <si>
-    <t>131095015</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>CTCCCCAAGAGCTGGAGTTA</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>59% (49)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 43%, Moreno-Mateos: 59%</t>
   </si>
 </sst>
 </file>
@@ -359,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1073,65 +1043,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>99</v>
-      </c>
-      <c r="R13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
